--- a/parts.xlsx
+++ b/parts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Documents/GitHub/poseidon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C20B3E-BF39-A34E-B315-6E33A06F3D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF66205-D6DD-FD4E-85DD-41293EB9B944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="7480" windowWidth="34120" windowHeight="18620" xr2:uid="{3282401A-40A0-594C-82D4-29FD74DF252F}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -798,11 +798,11 @@
         <v>3.99</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>3.99</v>
+        <v>7.98</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1084,7 +1084,7 @@
     <row r="26" spans="1:5">
       <c r="C26" s="2">
         <f>SUM(C2:C25)</f>
-        <v>379.53999999999996</v>
+        <v>383.53</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/parts.xlsx
+++ b/parts.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Documents/GitHub/poseidon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF66205-D6DD-FD4E-85DD-41293EB9B944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20ECDCE-792D-2547-A138-E0D6C53D6312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="7480" windowWidth="34120" windowHeight="18620" xr2:uid="{3282401A-40A0-594C-82D4-29FD74DF252F}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
     <sheet name="Tools" sheetId="2" r:id="rId2"/>
-    <sheet name="Parts (Minimal)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Price</t>
   </si>
@@ -71,9 +70,6 @@
     <t>12 Head Ultrasonic Fogger and Power Supply</t>
   </si>
   <si>
-    <t>Raspberry Pi Zero W</t>
-  </si>
-  <si>
     <t>https://core-electronics.com.au/5v-single-channel-relay-module-10a.html</t>
   </si>
   <si>
@@ -227,19 +223,37 @@
     <t>Socket to Socket Jumper Leads</t>
   </si>
   <si>
-    <t>https://www.jaycar.com.au/40-pin-dual-in-line-dil-jumpers/p/HM3250</t>
-  </si>
-  <si>
-    <t>40 pin Jumper Header Strip</t>
-  </si>
-  <si>
-    <t>https://core-electronics.com.au/raspberry-pi-zero-w-wireless.html</t>
-  </si>
-  <si>
     <t>https://www.bunnings.com.au/craftright-3-piece-step-drill-set_p0027584</t>
   </si>
   <si>
     <t>Drill + Step Drill Set/Drill bits</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com.au/itm/AU-ESP-WROOM-32-ESP32-ESP32S-2-4GHz-WiFi-Bluetooth-Development-Board-for-Arduino/303428770355</t>
+  </si>
+  <si>
+    <t>IC Experimenters Board</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/ic-experimenters-board-140-x-95mm/p/HP9558</t>
+  </si>
+  <si>
+    <t>Male Header Strip</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/40-pin-header-terminal-strip/p/HM3212</t>
+  </si>
+  <si>
+    <t>Female Header Strip</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/40-pin-female-header-strip/p/HM3230</t>
+  </si>
+  <si>
+    <t>Socker to Socker Leads</t>
   </si>
 </sst>
 </file>
@@ -617,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C051F02-069C-8A4A-A3C0-2F635946389C}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -634,13 +648,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -675,14 +689,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C25" si="0">A3*B3</f>
+        <f t="shared" ref="C3:C28" si="0">A3*B3</f>
         <v>9.2899999999999991</v>
       </c>
       <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -697,10 +711,10 @@
         <v>12.3</v>
       </c>
       <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -733,10 +747,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -777,17 +791,17 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>17.95</v>
+        <v>14.99</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>17.95</v>
+        <v>14.99</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>66</v>
@@ -805,10 +819,10 @@
         <v>7.98</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -823,10 +837,10 @@
         <v>6.2</v>
       </c>
       <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -841,10 +855,10 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -859,10 +873,10 @@
         <v>6.95</v>
       </c>
       <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -877,10 +891,10 @@
         <v>5.95</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -895,10 +909,10 @@
         <v>7.8</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -913,10 +927,10 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -931,10 +945,10 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -949,10 +963,10 @@
         <v>16.989999999999998</v>
       </c>
       <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
         <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -967,10 +981,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -985,10 +999,10 @@
         <v>3.35</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1003,10 +1017,10 @@
         <v>6.5</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1021,10 +1035,10 @@
         <v>1.2</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1039,10 +1053,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1057,50 +1071,103 @@
         <v>5.95</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>1.75</v>
+        <v>6.95</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>6.95</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="C26" s="2">
-        <f>SUM(C2:C25)</f>
-        <v>383.53</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" t="s">
+      <c r="A28" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="2">
+        <f>SUM(C2:C28)</f>
+        <v>394.46999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E22" r:id="rId1" xr:uid="{4FF11BA5-CB2B-7D4F-BAFD-50E7E3683FB7}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{95715CB1-3AEB-E14B-809F-3CE0C922410E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1135,10 +1202,10 @@
         <v>29.99</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1146,53 +1213,53 @@
         <v>19.98</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1201,368 +1268,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671FA99F-54BB-D643-9C9C-97E64EB5B78F}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <f>A2*B2</f>
-        <v>17.989999999999998</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C18" si="0">A3*B3</f>
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>12.3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>12.3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>120</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>20.99</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>20.99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>10.98</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>10.98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>6.95</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>6.95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>5.95</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>16.989999999999998</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="C19" s="2">
-        <f>SUM(C2:C18)</f>
-        <v>325.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{2D2B3461-F49A-AA4F-8B04-A149C2B65933}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>